--- a/Configs/GameConfig/Datas/actor_attribute.xlsx
+++ b/Configs/GameConfig/Datas/actor_attribute.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834D00C0-AB7D-4B3C-8D16-FD901A792B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD189D31-D02E-4376-AFE0-F86DC234CD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
   <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -840,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
